--- a/vega/wackopicko/wackopicko_testcases-vega.xlsx
+++ b/vega/wackopicko/wackopicko_testcases-vega.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranakhalil/Desktop/git/Thesis/results/vega/wackopicko/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranakhalil/Desktop/git/Thesis-Test-Results/vega/wackopicko/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A64357-DC1A-2849-A29C-964E5E12C0ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4090600C-9558-6F44-8069-112DC6A87D0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="27780" windowHeight="15940" xr2:uid="{8F21A191-265A-4746-89E5-44D0C95BFDF1}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="27780" windowHeight="15940" activeTab="4" xr2:uid="{8F21A191-265A-4746-89E5-44D0C95BFDF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Reflected XSS</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>picid</t>
-  </si>
-  <si>
-    <t>login.php</t>
   </si>
 </sst>
 </file>
@@ -472,6 +469,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,10 +488,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -808,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F419AD2-B910-D54B-AAFC-0215CD80E1D2}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -824,20 +821,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
@@ -855,16 +852,16 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24">
-        <v>1</v>
-      </c>
-      <c r="E3" s="25">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20">
         <v>1</v>
       </c>
       <c r="G3" s="16"/>
@@ -873,16 +870,16 @@
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1</v>
-      </c>
-      <c r="D4" s="26">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
         <v>1</v>
       </c>
       <c r="G4" s="16"/>
@@ -891,25 +888,25 @@
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1</v>
-      </c>
-      <c r="D6" s="26">
-        <v>1</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
         <v>1</v>
       </c>
       <c r="G6" s="16"/>
@@ -918,12 +915,12 @@
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
         <v>1</v>
       </c>
     </row>
@@ -931,10 +928,10 @@
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="18"/>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1066,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B1A571-83D0-D349-94F5-C4E0C8E12BD0}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,10 +1088,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1102,23 +1099,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1129,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAF2CC0-D21B-8347-A0AE-7150257D21AA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,23 +1141,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1182,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E6B4AA-E158-6645-BB96-F394DFA3CEE7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1207,23 +1182,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1234,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D1B7DF-E1BF-B943-B4CA-8BD6425F5039}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1247,23 +1211,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
         <v>28</v>
       </c>
     </row>
